--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="14940" windowHeight="4635"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="14940" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="state" sheetId="2" r:id="rId2"/>
+    <sheet name="background" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Task i</t>
   </si>
@@ -62,13 +64,58 @@
   </si>
   <si>
     <t>Discussion - Cycles</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Motivation,Approach, Background</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>User Guid</t>
+  </si>
+  <si>
+    <t>הגשת התזה עד סוף מרץ 2023</t>
+  </si>
+  <si>
+    <t>new plan</t>
+  </si>
+  <si>
+    <t>variables identity</t>
+  </si>
+  <si>
+    <t>מהדוגמא קטע 4 בהצעה</t>
+  </si>
+  <si>
+    <t>תאריך לידה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +269,14 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +454,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -564,9 +623,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="B10:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,219 +975,393 @@
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>44678</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1">
-        <v>44622</v>
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>44636</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>44650</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>44664</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>44678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>44692</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>44720</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>44734</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>44748</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>44762</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>44776</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>44790</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>44818</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>44832</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>44846</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>44860</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>44874</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>44888</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>44902</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>44916</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>44930</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="14940" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="14940" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="state" sheetId="2" r:id="rId2"/>
-    <sheet name="background" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Task i</t>
   </si>
@@ -102,13 +101,10 @@
     <t>new plan</t>
   </si>
   <si>
-    <t>variables identity</t>
-  </si>
-  <si>
-    <t>מהדוגמא קטע 4 בהצעה</t>
-  </si>
-  <si>
     <t>תאריך לידה</t>
+  </si>
+  <si>
+    <t>bibliography</t>
   </si>
 </sst>
 </file>
@@ -966,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="B10:D24"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1075,8 +1071,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
@@ -1085,7 +1082,9 @@
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
@@ -1095,7 +1094,9 @@
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
@@ -1105,7 +1106,9 @@
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
@@ -1115,7 +1118,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
@@ -1125,7 +1130,9 @@
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
@@ -1135,7 +1142,9 @@
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
@@ -1145,7 +1154,9 @@
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
@@ -1155,7 +1166,9 @@
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
@@ -1165,16 +1178,16 @@
       <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>44874</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
@@ -1182,9 +1195,7 @@
       <c r="A21" s="1">
         <v>44888</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
@@ -1192,9 +1203,7 @@
       <c r="A22" s="1">
         <v>44902</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
@@ -1202,9 +1211,7 @@
       <c r="A23" s="1">
         <v>44916</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
@@ -1212,9 +1219,7 @@
       <c r="A24" s="1">
         <v>44930</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
@@ -1223,7 +1228,7 @@
         <v>44944</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1259,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1289,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1297,7 +1302,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1341,30 +1346,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Task i</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>bibliography</t>
+  </si>
+  <si>
+    <t>Background,Evaluation</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1085,7 +1088,9 @@
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
@@ -1265,7 +1270,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1286,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1294,7 +1299,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1302,7 +1307,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1318,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Task i</t>
   </si>
@@ -108,6 +108,48 @@
   </si>
   <si>
     <t>Background,Evaluation</t>
+  </si>
+  <si>
+    <t>ו אב</t>
+  </si>
+  <si>
+    <t>כא אב</t>
+  </si>
+  <si>
+    <t>ה אלול</t>
+  </si>
+  <si>
+    <t>יט אלול</t>
+  </si>
+  <si>
+    <t>ד תשרי</t>
+  </si>
+  <si>
+    <t>יח תשרי</t>
+  </si>
+  <si>
+    <t>ב חשון</t>
+  </si>
+  <si>
+    <t>טז חשון</t>
+  </si>
+  <si>
+    <t>ל חשון</t>
+  </si>
+  <si>
+    <t>יד כסליו</t>
+  </si>
+  <si>
+    <t>כח כסליו</t>
+  </si>
+  <si>
+    <t>יב טבת</t>
+  </si>
+  <si>
+    <t>כו טבת</t>
+  </si>
+  <si>
+    <t>Introduction, approach</t>
   </si>
 </sst>
 </file>
@@ -275,7 +317,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,12 +670,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,300 +1012,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="C1" t="s">
+    <row r="1" spans="1:5">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>44622</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>44636</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>44650</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>44664</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>44678</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="1"/>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>44692</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>44706</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>44720</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>44734</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>44748</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>44762</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
         <v>44776</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>44790</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>44804</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>44818</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>44832</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>44846</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>44860</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>44874</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>44888</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>44902</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>44916</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>44930</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>44944</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>44958</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>44972</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>44986</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
         <v>0</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
-  <si>
-    <t>Task i</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Traditional Paradigms</t>
   </si>
@@ -104,9 +101,6 @@
     <t>תאריך לידה</t>
   </si>
   <si>
-    <t>bibliography</t>
-  </si>
-  <si>
     <t>Background,Evaluation</t>
   </si>
   <si>
@@ -150,6 +144,24 @@
   </si>
   <si>
     <t>Introduction, approach</t>
+  </si>
+  <si>
+    <t>Introduction,Background,Cycles,Glitch</t>
+  </si>
+  <si>
+    <t>הגשה</t>
+  </si>
+  <si>
+    <t>מפגש מסטרנטים</t>
+  </si>
+  <si>
+    <t>Original Plan</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>Implementation+Evaluation</t>
   </si>
 </sst>
 </file>
@@ -317,7 +329,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,13 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,13 +676,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1012,360 +1020,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>44622</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>44636</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>44650</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>44664</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>44678</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="1"/>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>44692</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>44706</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>44720</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>44734</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>44748</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>44762</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
         <v>44776</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>44790</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6">
         <v>44804</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>44818</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>44832</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>44846</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>44860</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>44874</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>44888</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>44902</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>44916</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>44930</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>44944</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>44958</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>44972</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6">
         <v>44986</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1374,7 +1414,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1384,55 +1424,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1440,7 +1480,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
         <v>0.6</v>
@@ -1448,7 +1488,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
